--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il13ra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H2">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I2">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J2">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.607651889387229</v>
+        <v>9.6737725</v>
       </c>
       <c r="N2">
-        <v>9.607651889387229</v>
+        <v>19.347545</v>
       </c>
       <c r="O2">
-        <v>0.1193630671030354</v>
+        <v>0.1143946711925798</v>
       </c>
       <c r="P2">
-        <v>0.1193630671030354</v>
+        <v>0.08092258145123817</v>
       </c>
       <c r="Q2">
-        <v>3.553386220804432</v>
+        <v>0.8321911161987501</v>
       </c>
       <c r="R2">
-        <v>3.553386220804432</v>
+        <v>3.328764464795</v>
       </c>
       <c r="S2">
-        <v>0.01088979822369163</v>
+        <v>0.002134849645257337</v>
       </c>
       <c r="T2">
-        <v>0.01088979822369163</v>
+        <v>0.001179044734804655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H3">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I3">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J3">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.0915370201058</v>
+        <v>27.78704333333333</v>
       </c>
       <c r="N3">
-        <v>26.0915370201058</v>
+        <v>83.36113</v>
       </c>
       <c r="O3">
-        <v>0.3241547383281446</v>
+        <v>0.328588426648511</v>
       </c>
       <c r="P3">
-        <v>0.3241547383281446</v>
+        <v>0.3486642792298585</v>
       </c>
       <c r="Q3">
-        <v>9.649944564422169</v>
+        <v>2.390394296271667</v>
       </c>
       <c r="R3">
-        <v>9.649944564422169</v>
+        <v>14.34236577763</v>
       </c>
       <c r="S3">
-        <v>0.02957346672903387</v>
+        <v>0.006132164013875344</v>
       </c>
       <c r="T3">
-        <v>0.02957346672903387</v>
+        <v>0.005080050280997737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H4">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I4">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J4">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8739312356542</v>
+        <v>15.38178266666667</v>
       </c>
       <c r="N4">
-        <v>13.8739312356542</v>
+        <v>46.145348</v>
       </c>
       <c r="O4">
-        <v>0.1723662559936809</v>
+        <v>0.1818932552433971</v>
       </c>
       <c r="P4">
-        <v>0.1723662559936809</v>
+        <v>0.1930064347763879</v>
       </c>
       <c r="Q4">
-        <v>5.131267936093606</v>
+        <v>1.323225544791333</v>
       </c>
       <c r="R4">
-        <v>5.131267936093606</v>
+        <v>7.939353268748</v>
       </c>
       <c r="S4">
-        <v>0.0157254148531898</v>
+        <v>0.003394517833591682</v>
       </c>
       <c r="T4">
-        <v>0.0157254148531898</v>
+        <v>0.002812110249394872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H5">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I5">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J5">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.5947251618543</v>
+        <v>20.88671433333333</v>
       </c>
       <c r="N5">
-        <v>20.5947251618543</v>
+        <v>62.66014300000001</v>
       </c>
       <c r="O5">
-        <v>0.2558637208929696</v>
+        <v>0.2469903875096308</v>
       </c>
       <c r="P5">
-        <v>0.2558637208929696</v>
+        <v>0.2620808234669428</v>
       </c>
       <c r="Q5">
-        <v>7.616950890177895</v>
+        <v>1.796790043882167</v>
       </c>
       <c r="R5">
-        <v>7.616950890177895</v>
+        <v>10.780740263293</v>
       </c>
       <c r="S5">
-        <v>0.02334310235914285</v>
+        <v>0.004609369786720538</v>
       </c>
       <c r="T5">
-        <v>0.02334310235914285</v>
+        <v>0.003818526416982452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H6">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I6">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J6">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.70317573986151</v>
+        <v>5.901780666666667</v>
       </c>
       <c r="N6">
-        <v>5.70317573986151</v>
+        <v>17.705342</v>
       </c>
       <c r="O6">
-        <v>0.07085483075104532</v>
+        <v>0.06978996651141606</v>
       </c>
       <c r="P6">
-        <v>0.07085483075104532</v>
+        <v>0.07405394225040067</v>
       </c>
       <c r="Q6">
-        <v>2.10931727358229</v>
+        <v>0.5077036327403334</v>
       </c>
       <c r="R6">
-        <v>2.10931727358229</v>
+        <v>3.046221796442</v>
       </c>
       <c r="S6">
-        <v>0.006464267622971318</v>
+        <v>0.001302430294140155</v>
       </c>
       <c r="T6">
-        <v>0.006464267622971318</v>
+        <v>0.001078968430517449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H7">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I7">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J7">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.61997271332418</v>
+        <v>4.933794</v>
       </c>
       <c r="N7">
-        <v>4.61997271332418</v>
+        <v>9.867588</v>
       </c>
       <c r="O7">
-        <v>0.05739738693112434</v>
+        <v>0.0583432928944652</v>
       </c>
       <c r="P7">
-        <v>0.05739738693112434</v>
+        <v>0.04127193882517189</v>
       </c>
       <c r="Q7">
-        <v>1.70869506608088</v>
+        <v>0.424432095747</v>
       </c>
       <c r="R7">
-        <v>1.70869506608088</v>
+        <v>1.697728382988</v>
       </c>
       <c r="S7">
-        <v>0.005236510567440037</v>
+        <v>0.001088810840928167</v>
       </c>
       <c r="T7">
-        <v>0.005236510567440037</v>
+        <v>0.0006013335374912732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H8">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I8">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J8">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.607651889387229</v>
+        <v>9.6737725</v>
       </c>
       <c r="N8">
-        <v>9.607651889387229</v>
+        <v>19.347545</v>
       </c>
       <c r="O8">
-        <v>0.1193630671030354</v>
+        <v>0.1143946711925798</v>
       </c>
       <c r="P8">
-        <v>0.1193630671030354</v>
+        <v>0.08092258145123817</v>
       </c>
       <c r="Q8">
-        <v>9.023569618271912</v>
+        <v>3.6530776878575</v>
       </c>
       <c r="R8">
-        <v>9.023569618271912</v>
+        <v>21.918466127145</v>
       </c>
       <c r="S8">
-        <v>0.02765386206123397</v>
+        <v>0.009371370895718042</v>
       </c>
       <c r="T8">
-        <v>0.02765386206123397</v>
+        <v>0.00776349674346695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H9">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I9">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J9">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.0915370201058</v>
+        <v>27.78704333333333</v>
       </c>
       <c r="N9">
-        <v>26.0915370201058</v>
+        <v>83.36113</v>
       </c>
       <c r="O9">
-        <v>0.3241547383281446</v>
+        <v>0.328588426648511</v>
       </c>
       <c r="P9">
-        <v>0.3241547383281446</v>
+        <v>0.3486642792298585</v>
       </c>
       <c r="Q9">
-        <v>24.5053425602059</v>
+        <v>10.49313781283667</v>
       </c>
       <c r="R9">
-        <v>24.5053425602059</v>
+        <v>94.43824031553001</v>
       </c>
       <c r="S9">
-        <v>0.07509969907596271</v>
+        <v>0.02691842186407175</v>
       </c>
       <c r="T9">
-        <v>0.07509969907596271</v>
+        <v>0.0334499214906452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H10">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I10">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J10">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8739312356542</v>
+        <v>15.38178266666667</v>
       </c>
       <c r="N10">
-        <v>13.8739312356542</v>
+        <v>46.145348</v>
       </c>
       <c r="O10">
-        <v>0.1723662559936809</v>
+        <v>0.1818932552433971</v>
       </c>
       <c r="P10">
-        <v>0.1723662559936809</v>
+        <v>0.1930064347763879</v>
       </c>
       <c r="Q10">
-        <v>13.03048713935322</v>
+        <v>5.808576443065333</v>
       </c>
       <c r="R10">
-        <v>13.03048713935322</v>
+        <v>52.277187987588</v>
       </c>
       <c r="S10">
-        <v>0.03993356389833737</v>
+        <v>0.01490094897380109</v>
       </c>
       <c r="T10">
-        <v>0.03993356389833737</v>
+        <v>0.01851652284174293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H11">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I11">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J11">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.5947251618543</v>
+        <v>20.88671433333333</v>
       </c>
       <c r="N11">
-        <v>20.5947251618543</v>
+        <v>62.66014300000001</v>
       </c>
       <c r="O11">
-        <v>0.2558637208929696</v>
+        <v>0.2469903875096308</v>
       </c>
       <c r="P11">
-        <v>0.2558637208929696</v>
+        <v>0.2620808234669428</v>
       </c>
       <c r="Q11">
-        <v>19.34270083957228</v>
+        <v>7.887387273553666</v>
       </c>
       <c r="R11">
-        <v>19.34270083957228</v>
+        <v>70.98648546198301</v>
       </c>
       <c r="S11">
-        <v>0.05927813532087362</v>
+        <v>0.02023379677479255</v>
       </c>
       <c r="T11">
-        <v>0.05927813532087362</v>
+        <v>0.02514333555630306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H12">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I12">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J12">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.70317573986151</v>
+        <v>5.901780666666667</v>
       </c>
       <c r="N12">
-        <v>5.70317573986151</v>
+        <v>17.705342</v>
       </c>
       <c r="O12">
-        <v>0.07085483075104532</v>
+        <v>0.06978996651141606</v>
       </c>
       <c r="P12">
-        <v>0.07085483075104532</v>
+        <v>0.07405394225040067</v>
       </c>
       <c r="Q12">
-        <v>5.35646003064772</v>
+        <v>2.228671727811333</v>
       </c>
       <c r="R12">
-        <v>5.35646003064772</v>
+        <v>20.058045550302</v>
       </c>
       <c r="S12">
-        <v>0.0164155443012377</v>
+        <v>0.005717291322750398</v>
       </c>
       <c r="T12">
-        <v>0.0164155443012377</v>
+        <v>0.007104537808748791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H13">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I13">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J13">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.61997271332418</v>
+        <v>4.933794</v>
       </c>
       <c r="N13">
-        <v>4.61997271332418</v>
+        <v>9.867588</v>
       </c>
       <c r="O13">
-        <v>0.05739738693112434</v>
+        <v>0.0583432928944652</v>
       </c>
       <c r="P13">
-        <v>0.05739738693112434</v>
+        <v>0.04127193882517189</v>
       </c>
       <c r="Q13">
-        <v>4.339108649351386</v>
+        <v>1.863133826838</v>
       </c>
       <c r="R13">
-        <v>4.339108649351386</v>
+        <v>11.178802961028</v>
       </c>
       <c r="S13">
-        <v>0.01329774325837696</v>
+        <v>0.004779563866843911</v>
       </c>
       <c r="T13">
-        <v>0.01329774325837696</v>
+        <v>0.003959519789403438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H14">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I14">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J14">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.607651889387229</v>
+        <v>9.6737725</v>
       </c>
       <c r="N14">
-        <v>9.607651889387229</v>
+        <v>19.347545</v>
       </c>
       <c r="O14">
-        <v>0.1193630671030354</v>
+        <v>0.1143946711925798</v>
       </c>
       <c r="P14">
-        <v>0.1193630671030354</v>
+        <v>0.08092258145123817</v>
       </c>
       <c r="Q14">
-        <v>3.42870802680378</v>
+        <v>12.17505858809917</v>
       </c>
       <c r="R14">
-        <v>3.42870802680378</v>
+        <v>73.050351528595</v>
       </c>
       <c r="S14">
-        <v>0.01050770624404355</v>
+        <v>0.03123311340610756</v>
       </c>
       <c r="T14">
-        <v>0.01050770624404355</v>
+        <v>0.02587435466111399</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H15">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I15">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J15">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0915370201058</v>
+        <v>27.78704333333333</v>
       </c>
       <c r="N15">
-        <v>26.0915370201058</v>
+        <v>83.36113</v>
       </c>
       <c r="O15">
-        <v>0.3241547383281446</v>
+        <v>0.328588426648511</v>
       </c>
       <c r="P15">
-        <v>0.3241547383281446</v>
+        <v>0.3486642792298585</v>
       </c>
       <c r="Q15">
-        <v>9.31135551562854</v>
+        <v>34.97176314342556</v>
       </c>
       <c r="R15">
-        <v>9.31135551562854</v>
+        <v>314.74586829083</v>
       </c>
       <c r="S15">
-        <v>0.02853581807701664</v>
+        <v>0.08971431524262383</v>
       </c>
       <c r="T15">
-        <v>0.02853581807701664</v>
+        <v>0.1114826425043192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H16">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I16">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J16">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.8739312356542</v>
+        <v>15.38178266666667</v>
       </c>
       <c r="N16">
-        <v>13.8739312356542</v>
+        <v>46.145348</v>
       </c>
       <c r="O16">
-        <v>0.1723662559936809</v>
+        <v>0.1818932552433971</v>
       </c>
       <c r="P16">
-        <v>0.1723662559936809</v>
+        <v>0.1930064347763879</v>
       </c>
       <c r="Q16">
-        <v>4.951226370259883</v>
+        <v>19.35895279282978</v>
       </c>
       <c r="R16">
-        <v>4.951226370259883</v>
+        <v>174.230575135468</v>
       </c>
       <c r="S16">
-        <v>0.01517365486933899</v>
+        <v>0.04966221424124866</v>
       </c>
       <c r="T16">
-        <v>0.01517365486933899</v>
+        <v>0.06171227926398554</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H17">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I17">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J17">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.5947251618543</v>
+        <v>20.88671433333333</v>
       </c>
       <c r="N17">
-        <v>20.5947251618543</v>
+        <v>62.66014300000001</v>
       </c>
       <c r="O17">
-        <v>0.2558637208929696</v>
+        <v>0.2469903875096308</v>
       </c>
       <c r="P17">
-        <v>0.2558637208929696</v>
+        <v>0.2620808234669428</v>
       </c>
       <c r="Q17">
-        <v>7.349693794616791</v>
+        <v>26.28725977597922</v>
       </c>
       <c r="R17">
-        <v>7.349693794616791</v>
+        <v>236.585337983813</v>
       </c>
       <c r="S17">
-        <v>0.02252405943398302</v>
+        <v>0.06743564803224103</v>
       </c>
       <c r="T17">
-        <v>0.02252405943398302</v>
+        <v>0.0837982681057529</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H18">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I18">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J18">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.70317573986151</v>
+        <v>5.901780666666667</v>
       </c>
       <c r="N18">
-        <v>5.70317573986151</v>
+        <v>17.705342</v>
       </c>
       <c r="O18">
-        <v>0.07085483075104532</v>
+        <v>0.06978996651141606</v>
       </c>
       <c r="P18">
-        <v>0.07085483075104532</v>
+        <v>0.07405394225040067</v>
       </c>
       <c r="Q18">
-        <v>2.035307342799961</v>
+        <v>7.427766715702445</v>
       </c>
       <c r="R18">
-        <v>2.035307342799961</v>
+        <v>66.84990044132201</v>
       </c>
       <c r="S18">
-        <v>0.006237454897675587</v>
+        <v>0.01905471571302438</v>
       </c>
       <c r="T18">
-        <v>0.006237454897675587</v>
+        <v>0.02367816166362799</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H19">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I19">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J19">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.61997271332418</v>
+        <v>4.933794</v>
       </c>
       <c r="N19">
-        <v>4.61997271332418</v>
+        <v>9.867588</v>
       </c>
       <c r="O19">
-        <v>0.05739738693112434</v>
+        <v>0.0583432928944652</v>
       </c>
       <c r="P19">
-        <v>0.05739738693112434</v>
+        <v>0.04127193882517189</v>
       </c>
       <c r="Q19">
-        <v>1.648741826635785</v>
+        <v>6.209493867218</v>
       </c>
       <c r="R19">
-        <v>1.648741826635785</v>
+        <v>37.256963203308</v>
       </c>
       <c r="S19">
-        <v>0.005052776337653456</v>
+        <v>0.01592943678635952</v>
       </c>
       <c r="T19">
-        <v>0.005052776337653456</v>
+        <v>0.01319637564154793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H20">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I20">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J20">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.607651889387229</v>
+        <v>9.6737725</v>
       </c>
       <c r="N20">
-        <v>9.607651889387229</v>
+        <v>19.347545</v>
       </c>
       <c r="O20">
-        <v>0.1193630671030354</v>
+        <v>0.1143946711925798</v>
       </c>
       <c r="P20">
-        <v>0.1193630671030354</v>
+        <v>0.08092258145123817</v>
       </c>
       <c r="Q20">
-        <v>5.45659251258972</v>
+        <v>3.630689353701667</v>
       </c>
       <c r="R20">
-        <v>5.45659251258972</v>
+        <v>21.78413612221</v>
       </c>
       <c r="S20">
-        <v>0.01672241286441319</v>
+        <v>0.009313937301078382</v>
       </c>
       <c r="T20">
-        <v>0.01672241286441319</v>
+        <v>0.007715917202553217</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H21">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I21">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J21">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.0915370201058</v>
+        <v>27.78704333333333</v>
       </c>
       <c r="N21">
-        <v>26.0915370201058</v>
+        <v>83.36113</v>
       </c>
       <c r="O21">
-        <v>0.3241547383281446</v>
+        <v>0.328588426648511</v>
       </c>
       <c r="P21">
-        <v>0.3241547383281446</v>
+        <v>0.3486642792298585</v>
       </c>
       <c r="Q21">
-        <v>14.8184891776868</v>
+        <v>10.42882933221556</v>
       </c>
       <c r="R21">
-        <v>14.8184891776868</v>
+        <v>93.85946398994001</v>
       </c>
       <c r="S21">
-        <v>0.04541312063973604</v>
+        <v>0.02675344901784849</v>
       </c>
       <c r="T21">
-        <v>0.04541312063973604</v>
+        <v>0.0332449195487735</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H22">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I22">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J22">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.8739312356542</v>
+        <v>15.38178266666667</v>
       </c>
       <c r="N22">
-        <v>13.8739312356542</v>
+        <v>46.145348</v>
       </c>
       <c r="O22">
-        <v>0.1723662559936809</v>
+        <v>0.1818932552433971</v>
       </c>
       <c r="P22">
-        <v>0.1723662559936809</v>
+        <v>0.1930064347763879</v>
       </c>
       <c r="Q22">
-        <v>7.879593283794938</v>
+        <v>5.772977870713778</v>
       </c>
       <c r="R22">
-        <v>7.879593283794938</v>
+        <v>51.956800836424</v>
       </c>
       <c r="S22">
-        <v>0.02414800295079019</v>
+        <v>0.01480962668247032</v>
       </c>
       <c r="T22">
-        <v>0.02414800295079019</v>
+        <v>0.01840304206301134</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H23">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I23">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J23">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.5947251618543</v>
+        <v>20.88671433333333</v>
       </c>
       <c r="N23">
-        <v>20.5947251618543</v>
+        <v>62.66014300000001</v>
       </c>
       <c r="O23">
-        <v>0.2558637208929696</v>
+        <v>0.2469903875096308</v>
       </c>
       <c r="P23">
-        <v>0.2558637208929696</v>
+        <v>0.2620808234669428</v>
       </c>
       <c r="Q23">
-        <v>11.69661686443394</v>
+        <v>7.839048454348223</v>
       </c>
       <c r="R23">
-        <v>11.69661686443394</v>
+        <v>70.55143608913401</v>
       </c>
       <c r="S23">
-        <v>0.03584575096502705</v>
+        <v>0.02010979147237563</v>
       </c>
       <c r="T23">
-        <v>0.03584575096502705</v>
+        <v>0.02498924154398631</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H24">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I24">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J24">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.70317573986151</v>
+        <v>5.901780666666667</v>
       </c>
       <c r="N24">
-        <v>5.70317573986151</v>
+        <v>17.705342</v>
       </c>
       <c r="O24">
-        <v>0.07085483075104532</v>
+        <v>0.06978996651141606</v>
       </c>
       <c r="P24">
-        <v>0.07085483075104532</v>
+        <v>0.07405394225040067</v>
       </c>
       <c r="Q24">
-        <v>3.239075103718861</v>
+        <v>2.215013040088445</v>
       </c>
       <c r="R24">
-        <v>3.239075103718861</v>
+        <v>19.935117360796</v>
       </c>
       <c r="S24">
-        <v>0.009926552341641096</v>
+        <v>0.005682252202442214</v>
       </c>
       <c r="T24">
-        <v>0.009926552341641096</v>
+        <v>0.007060996778396846</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H25">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I25">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J25">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.61997271332418</v>
+        <v>4.933794</v>
       </c>
       <c r="N25">
-        <v>4.61997271332418</v>
+        <v>9.867588</v>
       </c>
       <c r="O25">
-        <v>0.05739738693112434</v>
+        <v>0.0583432928944652</v>
       </c>
       <c r="P25">
-        <v>0.05739738693112434</v>
+        <v>0.04127193882517189</v>
       </c>
       <c r="Q25">
-        <v>2.623878217708965</v>
+        <v>1.851715382924</v>
       </c>
       <c r="R25">
-        <v>2.623878217708965</v>
+        <v>11.110292297544</v>
       </c>
       <c r="S25">
-        <v>0.008041204242617244</v>
+        <v>0.004750271724132102</v>
       </c>
       <c r="T25">
-        <v>0.008041204242617244</v>
+        <v>0.003935253387285452</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H26">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I26">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J26">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.607651889387229</v>
+        <v>9.6737725</v>
       </c>
       <c r="N26">
-        <v>9.607651889387229</v>
+        <v>19.347545</v>
       </c>
       <c r="O26">
-        <v>0.1193630671030354</v>
+        <v>0.1143946711925798</v>
       </c>
       <c r="P26">
-        <v>0.1193630671030354</v>
+        <v>0.08092258145123817</v>
       </c>
       <c r="Q26">
-        <v>17.48640632440039</v>
+        <v>5.589470280000834</v>
       </c>
       <c r="R26">
-        <v>17.48640632440039</v>
+        <v>33.536821680005</v>
       </c>
       <c r="S26">
-        <v>0.05358928770965306</v>
+        <v>0.01433886809431688</v>
       </c>
       <c r="T26">
-        <v>0.05358928770965306</v>
+        <v>0.01187870558042851</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H27">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I27">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J27">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>26.0915370201058</v>
+        <v>27.78704333333333</v>
       </c>
       <c r="N27">
-        <v>26.0915370201058</v>
+        <v>83.36113</v>
       </c>
       <c r="O27">
-        <v>0.3241547383281446</v>
+        <v>0.328588426648511</v>
       </c>
       <c r="P27">
-        <v>0.3241547383281446</v>
+        <v>0.3486642792298585</v>
       </c>
       <c r="Q27">
-        <v>47.4879006040678</v>
+        <v>16.05525175217445</v>
       </c>
       <c r="R27">
-        <v>47.4879006040678</v>
+        <v>144.49726576957</v>
       </c>
       <c r="S27">
-        <v>0.1455326338063953</v>
+        <v>0.04118711175890625</v>
       </c>
       <c r="T27">
-        <v>0.1455326338063953</v>
+        <v>0.05118077358764777</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H28">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I28">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J28">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.8739312356542</v>
+        <v>15.38178266666667</v>
       </c>
       <c r="N28">
-        <v>13.8739312356542</v>
+        <v>46.145348</v>
       </c>
       <c r="O28">
-        <v>0.1723662559936809</v>
+        <v>0.1818932552433971</v>
       </c>
       <c r="P28">
-        <v>0.1723662559936809</v>
+        <v>0.1930064347763879</v>
       </c>
       <c r="Q28">
-        <v>25.25124782793446</v>
+        <v>8.887537624930223</v>
       </c>
       <c r="R28">
-        <v>25.25124782793446</v>
+        <v>79.987838624372</v>
       </c>
       <c r="S28">
-        <v>0.07738561942202457</v>
+        <v>0.02279951825544617</v>
       </c>
       <c r="T28">
-        <v>0.07738561942202457</v>
+        <v>0.02833160500716839</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H29">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I29">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J29">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.5947251618543</v>
+        <v>20.88671433333333</v>
       </c>
       <c r="N29">
-        <v>20.5947251618543</v>
+        <v>62.66014300000001</v>
       </c>
       <c r="O29">
-        <v>0.2558637208929696</v>
+        <v>0.2469903875096308</v>
       </c>
       <c r="P29">
-        <v>0.2558637208929696</v>
+        <v>0.2620808234669428</v>
       </c>
       <c r="Q29">
-        <v>37.48342846573572</v>
+        <v>12.06826695718078</v>
       </c>
       <c r="R29">
-        <v>37.48342846573572</v>
+        <v>108.614402614627</v>
       </c>
       <c r="S29">
-        <v>0.1148726728139431</v>
+        <v>0.03095915701442683</v>
       </c>
       <c r="T29">
-        <v>0.1148726728139431</v>
+        <v>0.03847110268122124</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H30">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I30">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J30">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.70317573986151</v>
+        <v>5.901780666666667</v>
       </c>
       <c r="N30">
-        <v>5.70317573986151</v>
+        <v>17.705342</v>
       </c>
       <c r="O30">
-        <v>0.07085483075104532</v>
+        <v>0.06978996651141606</v>
       </c>
       <c r="P30">
-        <v>0.07085483075104532</v>
+        <v>0.07405394225040067</v>
       </c>
       <c r="Q30">
-        <v>10.38006471038386</v>
+        <v>3.410027229337556</v>
       </c>
       <c r="R30">
-        <v>10.38006471038386</v>
+        <v>30.690245064038</v>
       </c>
       <c r="S30">
-        <v>0.03181101158751962</v>
+        <v>0.008747864858401712</v>
       </c>
       <c r="T30">
-        <v>0.03181101158751962</v>
+        <v>0.01087045125460596</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5777963333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.733389</v>
+      </c>
+      <c r="I31">
+        <v>0.1253455947277287</v>
+      </c>
+      <c r="J31">
+        <v>0.1467909867357149</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.933794</v>
+      </c>
+      <c r="N31">
+        <v>9.867588</v>
+      </c>
+      <c r="O31">
+        <v>0.0583432928944652</v>
+      </c>
+      <c r="P31">
+        <v>0.04127193882517189</v>
+      </c>
+      <c r="Q31">
+        <v>2.850728082622</v>
+      </c>
+      <c r="R31">
+        <v>17.104368495732</v>
+      </c>
+      <c r="S31">
+        <v>0.007313074746230806</v>
+      </c>
+      <c r="T31">
+        <v>0.006058348624643045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.934301</v>
+      </c>
+      <c r="H32">
+        <v>3.868602</v>
+      </c>
+      <c r="I32">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J32">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>9.6737725</v>
+      </c>
+      <c r="N32">
+        <v>19.347545</v>
+      </c>
+      <c r="O32">
+        <v>0.1143946711925798</v>
+      </c>
+      <c r="P32">
+        <v>0.08092258145123817</v>
+      </c>
+      <c r="Q32">
+        <v>18.7119878205225</v>
+      </c>
+      <c r="R32">
+        <v>74.84795128209001</v>
+      </c>
+      <c r="S32">
+        <v>0.04800253185010156</v>
+      </c>
+      <c r="T32">
+        <v>0.02651106252887084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.934301</v>
+      </c>
+      <c r="H33">
+        <v>3.868602</v>
+      </c>
+      <c r="I33">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J33">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>27.78704333333333</v>
+      </c>
+      <c r="N33">
+        <v>83.36113</v>
+      </c>
+      <c r="O33">
+        <v>0.328588426648511</v>
+      </c>
+      <c r="P33">
+        <v>0.3486642792298585</v>
+      </c>
+      <c r="Q33">
+        <v>53.74850570671</v>
+      </c>
+      <c r="R33">
+        <v>322.49103424026</v>
+      </c>
+      <c r="S33">
+        <v>0.1378829647511853</v>
+      </c>
+      <c r="T33">
+        <v>0.1142259718174751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.934301</v>
+      </c>
+      <c r="H34">
+        <v>3.868602</v>
+      </c>
+      <c r="I34">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J34">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>15.38178266666667</v>
+      </c>
+      <c r="N34">
+        <v>46.145348</v>
+      </c>
+      <c r="O34">
+        <v>0.1818932552433971</v>
+      </c>
+      <c r="P34">
+        <v>0.1930064347763879</v>
+      </c>
+      <c r="Q34">
+        <v>29.752997593916</v>
+      </c>
+      <c r="R34">
+        <v>178.517985563496</v>
+      </c>
+      <c r="S34">
+        <v>0.07632642925683923</v>
+      </c>
+      <c r="T34">
+        <v>0.06323087535108486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.934301</v>
+      </c>
+      <c r="H35">
+        <v>3.868602</v>
+      </c>
+      <c r="I35">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J35">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>20.88671433333333</v>
+      </c>
+      <c r="N35">
+        <v>62.66014300000001</v>
+      </c>
+      <c r="O35">
+        <v>0.2469903875096308</v>
+      </c>
+      <c r="P35">
+        <v>0.2620808234669428</v>
+      </c>
+      <c r="Q35">
+        <v>40.401192421681</v>
+      </c>
+      <c r="R35">
+        <v>242.407154530086</v>
+      </c>
+      <c r="S35">
+        <v>0.1036426244290742</v>
+      </c>
+      <c r="T35">
+        <v>0.0858603491626968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.82004994828301</v>
-      </c>
-      <c r="H31">
-        <v>1.82004994828301</v>
-      </c>
-      <c r="I31">
-        <v>0.4489603778645722</v>
-      </c>
-      <c r="J31">
-        <v>0.4489603778645722</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.61997271332418</v>
-      </c>
-      <c r="N31">
-        <v>4.61997271332418</v>
-      </c>
-      <c r="O31">
-        <v>0.05739738693112434</v>
-      </c>
-      <c r="P31">
-        <v>0.05739738693112434</v>
-      </c>
-      <c r="Q31">
-        <v>8.40858109795459</v>
-      </c>
-      <c r="R31">
-        <v>8.40858109795459</v>
-      </c>
-      <c r="S31">
-        <v>0.02576915252503664</v>
-      </c>
-      <c r="T31">
-        <v>0.02576915252503664</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.934301</v>
+      </c>
+      <c r="H36">
+        <v>3.868602</v>
+      </c>
+      <c r="I36">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J36">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.901780666666667</v>
+      </c>
+      <c r="N36">
+        <v>17.705342</v>
+      </c>
+      <c r="O36">
+        <v>0.06978996651141606</v>
+      </c>
+      <c r="P36">
+        <v>0.07405394225040067</v>
+      </c>
+      <c r="Q36">
+        <v>11.415820245314</v>
+      </c>
+      <c r="R36">
+        <v>68.49492147188401</v>
+      </c>
+      <c r="S36">
+        <v>0.0292854121206572</v>
+      </c>
+      <c r="T36">
+        <v>0.02426082631450363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.934301</v>
+      </c>
+      <c r="H37">
+        <v>3.868602</v>
+      </c>
+      <c r="I37">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J37">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.933794</v>
+      </c>
+      <c r="N37">
+        <v>9.867588</v>
+      </c>
+      <c r="O37">
+        <v>0.0583432928944652</v>
+      </c>
+      <c r="P37">
+        <v>0.04127193882517189</v>
+      </c>
+      <c r="Q37">
+        <v>9.543442667994</v>
+      </c>
+      <c r="R37">
+        <v>38.173770671976</v>
+      </c>
+      <c r="S37">
+        <v>0.0244821349299707</v>
+      </c>
+      <c r="T37">
+        <v>0.01352110784480075</v>
       </c>
     </row>
   </sheetData>
